--- a/programme.xlsx
+++ b/programme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\Projects\indigo-radio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C3ABC2-396F-42A4-B628-DCC7D9D07523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E24B9C-216F-47F4-958E-1B769D817637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{03067A53-B422-40DC-88F7-7DF185341E14}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{03067A53-B422-40DC-88F7-7DF185341E14}"/>
   </bookViews>
   <sheets>
     <sheet name="programme" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -213,6 +213,117 @@
   </si>
   <si>
     <t>yack-ps-wed</t>
+  </si>
+  <si>
+    <t>alternative-playlist-fri</t>
+  </si>
+  <si>
+    <t>friday</t>
+  </si>
+  <si>
+    <t>uncut-unsigned-fri</t>
+  </si>
+  <si>
+    <t>car-wheels-gravel-road-fri</t>
+  </si>
+  <si>
+    <t>blues-hotel-fri</t>
+  </si>
+  <si>
+    <t>playlist-fri</t>
+  </si>
+  <si>
+    <t>Roots / Americana Playlist</t>
+  </si>
+  <si>
+    <t>Toxic</t>
+  </si>
+  <si>
+    <t>saturday</t>
+  </si>
+  <si>
+    <t>Americana / Country playlist</t>
+  </si>
+  <si>
+    <t>Primary Schools General</t>
+  </si>
+  <si>
+    <t>Yackandandah Primary School</t>
+  </si>
+  <si>
+    <t>Asleep At The Wheel</t>
+  </si>
+  <si>
+    <t>Atomic Countdown</t>
+  </si>
+  <si>
+    <t>Aussie Music Weekly</t>
+  </si>
+  <si>
+    <t>Beale st Caravan</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>roots-playlist-sat</t>
+  </si>
+  <si>
+    <t>toxic-sat</t>
+  </si>
+  <si>
+    <t>baby-revenge-sat</t>
+  </si>
+  <si>
+    <t>oz-hour-sat</t>
+  </si>
+  <si>
+    <t>the-hotel-sat</t>
+  </si>
+  <si>
+    <t>everyone-music-sat</t>
+  </si>
+  <si>
+    <t>bullfrog's-sat</t>
+  </si>
+  <si>
+    <t>waste-alphabet-sat</t>
+  </si>
+  <si>
+    <t>eclectic-sat</t>
+  </si>
+  <si>
+    <t>americana-playlist-sun</t>
+  </si>
+  <si>
+    <t>primary-general-sun</t>
+  </si>
+  <si>
+    <t>yackandandah-school-sun</t>
+  </si>
+  <si>
+    <t>everyone-music-sun</t>
+  </si>
+  <si>
+    <t>asleep-the-sun</t>
+  </si>
+  <si>
+    <t>oz-hour-sun</t>
+  </si>
+  <si>
+    <t>bullfrog's-sun</t>
+  </si>
+  <si>
+    <t>uncut-unsigned-sun</t>
+  </si>
+  <si>
+    <t>atomic-sun</t>
+  </si>
+  <si>
+    <t>aussie-weekly-sun</t>
+  </si>
+  <si>
+    <t>beale-caravan-sun</t>
   </si>
 </sst>
 </file>
@@ -594,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0BB71A-AFBE-4D87-BC05-4BC88FD7839C}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +717,7 @@
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,6 +1298,431 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
